--- a/data/regression_name_list268.xlsx
+++ b/data/regression_name_list268.xlsx
@@ -469,7 +469,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
